--- a/biology/Botanique/Armoiries_d'Arbois/Armoiries_d'Arbois.xlsx
+++ b/biology/Botanique/Armoiries_d'Arbois/Armoiries_d'Arbois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Armoiries_d%27Arbois</t>
+          <t>Armoiries_d'Arbois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les armoiries d'Arbois sont le blasonnement / héraldique / emblème d'Arbois (capitale du vignoble du Jura) dans le Jura en Bourgogne-Franche-Comté, à base de symbole allégorique d'un « Pélican de Piété » , avec pour devise associée : « Sic his quos diligo » (Ainsi je fais pour ceux que j'aime, en latin).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Armoiries_d%27Arbois</t>
+          <t>Armoiries_d'Arbois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le symbole héraldique d'Arbois est un pélican, sur un nid d'or, nourrissant ses trois petits en se perçant le cœur de son bec. Il est parfois couronné d'une couronne de Comte à neuf perles des comtes de Bourgogne du Comté de Bourgogne (Histoire du Jura, Histoire de la Franche-Comté au Moyen Âge), et entouré d'une couronne triomphale de vigne et de raisin (symbole de son statut de capitale du vignoble du Jura[1]). Au dessus de la porte d'entée de l'Hôtel de ville d'Arbois, il est également associé aux symboles allégoriques humanistes / chrétien de l'Œil de la Providence, et de la Déclaration des droits de l'homme et du citoyen de 1789. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le symbole héraldique d'Arbois est un pélican, sur un nid d'or, nourrissant ses trois petits en se perçant le cœur de son bec. Il est parfois couronné d'une couronne de Comte à neuf perles des comtes de Bourgogne du Comté de Bourgogne (Histoire du Jura, Histoire de la Franche-Comté au Moyen Âge), et entouré d'une couronne triomphale de vigne et de raisin (symbole de son statut de capitale du vignoble du Jura). Au dessus de la porte d'entée de l'Hôtel de ville d'Arbois, il est également associé aux symboles allégoriques humanistes / chrétien de l'Œil de la Providence, et de la Déclaration des droits de l'homme et du citoyen de 1789. 
 « D'azur au pélican d'argent becquetant sa poitrine gouttelée de gueules pour ses petits aussi d'argent, le tout posé sur un nid d'or »
 			Vitrail de l'Église Saint-Just d'Arbois
 			Hôtel de ville d'Arbois
